--- a/thesis_paper/results/phd_corrections.xlsx
+++ b/thesis_paper/results/phd_corrections.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>\acrshort{dct} &amp; \acrlong{dct}</t>
   </si>
@@ -144,6 +144,9 @@
     <t>{wfst}{WFST}{Weighted  Finite State Transducer}</t>
   </si>
   <si>
+    <t>epochs</t>
+  </si>
+  <si>
     <t>Experiment 1</t>
   </si>
   <si>
@@ -154,6 +157,21 @@
   </si>
   <si>
     <t>Experiment 4</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -241,7 +259,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>CTC-Loss curve for BiRNN only Experiments</a:t>
+              <a:t>Experiment 1, Experiment 2, Experiment 3 and Experiment 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -256,7 +274,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
+              <c:f>Sheet2!$B$1</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -273,9 +291,14 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -286,7 +309,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>Sheet2!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -303,9 +326,14 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:f>Sheet2!$C$2:$C$6</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -316,7 +344,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -333,9 +361,14 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$6</c:f>
+              <c:f>Sheet2!$D$2:$D$6</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -346,7 +379,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>Sheet2!$E$1</c:f>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -363,19 +396,24 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$6</c:f>
+              <c:f>Sheet2!$E$2:$E$6</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="295178114"/>
-        <c:axId val="1933703898"/>
+        <c:axId val="1759103352"/>
+        <c:axId val="1358025957"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295178114"/>
+        <c:axId val="1759103352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +440,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>epochs</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -427,10 +465,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1933703898"/>
+        <c:crossAx val="1358025957"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1933703898"/>
+        <c:axId val="1358025957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +543,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295178114"/>
+        <c:crossAx val="1759103352"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -539,10 +577,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -1748,7 +1786,7 @@
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1757,74 +1795,92 @@
       <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4">
         <v>550.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>540.0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>150.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>115.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4">
         <v>550.0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="4">
         <v>540.0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>140.0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>100.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4">
         <v>550.0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>540.0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>135.0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>95.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4">
         <v>550.0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>540.0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>125.0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>90.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4">
         <v>550.0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="4">
         <v>540.0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>100.0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>87.0</v>
       </c>
     </row>
